--- a/medicine/Pharmacie/Patheon/Patheon.xlsx
+++ b/medicine/Pharmacie/Patheon/Patheon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Patheon est une entreprise américaine de sous-traitance pharmaceutique, appelé également façonnier.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En début d'année 2014, Patheon et une partie des activités DSM liées aux façonnage fusionnent, dans une transaction d'une valeur de 2,6 milliards de dollars[1]. Cette nouvelle entité est contrôlée à 51 % par les actionnaires du premier et à 49 % du second, avec environ 8 000 salariés et un chiffre d'affaires d'environ 2 milliards de dollars[2].
-En septembre 2014, Patheon acquiert Gallus BioPharmaceuticals[3].
-En mai 2017, Thermo Fisher Scientific annonce l'acquisition de Patheon pour 5,2 milliards de dollars[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En début d'année 2014, Patheon et une partie des activités DSM liées aux façonnage fusionnent, dans une transaction d'une valeur de 2,6 milliards de dollars. Cette nouvelle entité est contrôlée à 51 % par les actionnaires du premier et à 49 % du second, avec environ 8 000 salariés et un chiffre d'affaires d'environ 2 milliards de dollars.
+En septembre 2014, Patheon acquiert Gallus BioPharmaceuticals.
+En mai 2017, Thermo Fisher Scientific annonce l'acquisition de Patheon pour 5,2 milliards de dollars.
 </t>
         </is>
       </c>
